--- a/result/gr50_08_simulated/details.xlsx
+++ b/result/gr50_08_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.454573392868042</v>
+        <v>0.4626922607421875</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>261.8893628387505</v>
+        <v>275.9337530369794</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01035646336058459</v>
+        <v>0.01040134582875035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008435355711583884</v>
+        <v>0.008428035884090563</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007255768985467557</v>
+        <v>0.007738008719057779</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006723797436716657</v>
+        <v>0.007059611484734264</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00646446320228009</v>
+        <v>0.006821210903091132</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005991286710611381</v>
+        <v>0.006821210903091132</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005864745822743277</v>
+        <v>0.006418758235678772</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005805914007869219</v>
+        <v>0.006226746093999222</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005706774084948817</v>
+        <v>0.006213262495966666</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005487953525733504</v>
+        <v>0.006056658926514663</v>
       </c>
       <c r="P2" t="n">
-        <v>0.005487953525733504</v>
+        <v>0.005833951560301759</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.005396182211094858</v>
+        <v>0.005833951560301759</v>
       </c>
       <c r="R2" t="n">
-        <v>0.005358408302753103</v>
+        <v>0.005688151035449522</v>
       </c>
       <c r="S2" t="n">
-        <v>0.005337456778027072</v>
+        <v>0.005636335713868044</v>
       </c>
       <c r="T2" t="n">
-        <v>0.005247936695090259</v>
+        <v>0.005582386149234148</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005218432577423891</v>
+        <v>0.005541011573364975</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005169821098824556</v>
+        <v>0.005482114114696436</v>
       </c>
       <c r="W2" t="n">
-        <v>0.005150051289334693</v>
+        <v>0.005440425200144848</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005122986711342528</v>
+        <v>0.005397674048609014</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.005105055805823594</v>
+        <v>0.005378825595262755</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5068318843841553</v>
+        <v>0.4530985355377197</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>271.9933672570751</v>
+        <v>262.8626510866325</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01037697656761418</v>
+        <v>0.01033874312311437</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008252524919330822</v>
+        <v>0.008500088864466711</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007771338408360869</v>
+        <v>0.007583552938507685</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007347844184934255</v>
+        <v>0.007257768139559727</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006976770177133673</v>
+        <v>0.006875546474686032</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006573779059185573</v>
+        <v>0.006655270305472172</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006406739989957343</v>
+        <v>0.00638282176669594</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006146689284565158</v>
+        <v>0.005927490665201376</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005962527962312154</v>
+        <v>0.005797455176214224</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005904457272884252</v>
+        <v>0.005745602826761158</v>
       </c>
       <c r="P3" t="n">
-        <v>0.005862490802260156</v>
+        <v>0.005630781448283894</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.005705426129630406</v>
+        <v>0.005516013317684911</v>
       </c>
       <c r="R3" t="n">
-        <v>0.005575593200774944</v>
+        <v>0.005417151072578647</v>
       </c>
       <c r="S3" t="n">
-        <v>0.005515503124986307</v>
+        <v>0.005343764638332003</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0054520257339767</v>
+        <v>0.005317696231784359</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00544691277973495</v>
+        <v>0.005168841471454797</v>
       </c>
       <c r="V3" t="n">
-        <v>0.005416251922245093</v>
+        <v>0.005168841471454797</v>
       </c>
       <c r="W3" t="n">
-        <v>0.005348342040568197</v>
+        <v>0.005153457642781748</v>
       </c>
       <c r="X3" t="n">
-        <v>0.005325056642946701</v>
+        <v>0.005134005563190174</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.005302014956278266</v>
+        <v>0.005124028286289131</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.524390697479248</v>
+        <v>0.3906357288360596</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>260.1314911753034</v>
+        <v>264.6186864901156</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01041909909089492</v>
+        <v>0.01047038990392477</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008779457700129389</v>
+        <v>0.008718343217483581</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007563098719348917</v>
+        <v>0.007736983885521965</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006994227434345826</v>
+        <v>0.007203006979048012</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006688785012092655</v>
+        <v>0.006982176386463974</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0062150717303836</v>
+        <v>0.006521126515472735</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0062150717303836</v>
+        <v>0.006267426779403299</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006034553966409267</v>
+        <v>0.006016747472192939</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00581851334777481</v>
+        <v>0.005880151418354016</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005594431979037831</v>
+        <v>0.005628025794764456</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00548796282306724</v>
+        <v>0.005552756952432648</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.005407587321080167</v>
+        <v>0.005509311953508329</v>
       </c>
       <c r="R4" t="n">
-        <v>0.005383144530930761</v>
+        <v>0.005475881152192883</v>
       </c>
       <c r="S4" t="n">
-        <v>0.005305485331593468</v>
+        <v>0.00543707239136625</v>
       </c>
       <c r="T4" t="n">
-        <v>0.005231078851691378</v>
+        <v>0.005348516556342397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.005182395883484591</v>
+        <v>0.005315961966643704</v>
       </c>
       <c r="V4" t="n">
-        <v>0.00514631294424055</v>
+        <v>0.005263303469299371</v>
       </c>
       <c r="W4" t="n">
-        <v>0.005107261448775692</v>
+        <v>0.005177593693843964</v>
       </c>
       <c r="X4" t="n">
-        <v>0.005076055435725422</v>
+        <v>0.005177593693843964</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.005070789301662833</v>
+        <v>0.005158258995908685</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5080223083496094</v>
+        <v>0.3593857288360596</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>262.6412646163026</v>
+        <v>256.8925975645307</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01032982584696881</v>
+        <v>0.01035150911078932</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009003579954386149</v>
+        <v>0.008673873058030284</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0081343693027417</v>
+        <v>0.008017025101872225</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006870671993691567</v>
+        <v>0.00718724823327683</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006667992694686344</v>
+        <v>0.006556711731160039</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00615312055128352</v>
+        <v>0.00647506170236483</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00615312055128352</v>
+        <v>0.006114808910002167</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006029470453650878</v>
+        <v>0.005897189574030352</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005852114706884175</v>
+        <v>0.005824898676250046</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005595220420891776</v>
+        <v>0.005592079379281949</v>
       </c>
       <c r="P5" t="n">
-        <v>0.005535165599733365</v>
+        <v>0.005455307039384372</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.005410173215732107</v>
+        <v>0.005323865871543272</v>
       </c>
       <c r="R5" t="n">
-        <v>0.005380148920760094</v>
+        <v>0.005225664481815406</v>
       </c>
       <c r="S5" t="n">
-        <v>0.005306369806440682</v>
+        <v>0.005225664481815406</v>
       </c>
       <c r="T5" t="n">
-        <v>0.005268599174951428</v>
+        <v>0.005183425730518822</v>
       </c>
       <c r="U5" t="n">
-        <v>0.005210937138232805</v>
+        <v>0.005106470168867748</v>
       </c>
       <c r="V5" t="n">
-        <v>0.005210937138232805</v>
+        <v>0.005091627630257076</v>
       </c>
       <c r="W5" t="n">
-        <v>0.00514346756844756</v>
+        <v>0.005055263008845876</v>
       </c>
       <c r="X5" t="n">
-        <v>0.005129123955821571</v>
+        <v>0.005025304779889503</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.005119712760551706</v>
+        <v>0.005007652973967458</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4379892349243164</v>
+        <v>0.3906159400939941</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>262.4650461168949</v>
+        <v>267.7499187496887</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01038234552397533</v>
+        <v>0.01031406849820599</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008769438102156314</v>
+        <v>0.00871924635319505</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008058702936230129</v>
+        <v>0.007653007787958506</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007443373642483499</v>
+        <v>0.007156190955423947</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006981835092171029</v>
+        <v>0.006734252341349758</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006658727544984261</v>
+        <v>0.006396797063456932</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006468106942670557</v>
+        <v>0.00625204549694566</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006118269221951705</v>
+        <v>0.006006521547083767</v>
       </c>
       <c r="N6" t="n">
-        <v>0.006118269221951705</v>
+        <v>0.005773282397745099</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005928018361730463</v>
+        <v>0.005672263232356863</v>
       </c>
       <c r="P6" t="n">
-        <v>0.00563159823453093</v>
+        <v>0.005598575024120759</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.005567760954096764</v>
+        <v>0.005545093658202197</v>
       </c>
       <c r="R6" t="n">
-        <v>0.00545799651279878</v>
+        <v>0.005520360311779811</v>
       </c>
       <c r="S6" t="n">
-        <v>0.005408485402572605</v>
+        <v>0.005456280298791846</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00530285464570653</v>
+        <v>0.005327616626460229</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005250530607118831</v>
+        <v>0.005327616626460229</v>
       </c>
       <c r="V6" t="n">
-        <v>0.005207741576717216</v>
+        <v>0.005308654907050054</v>
       </c>
       <c r="W6" t="n">
-        <v>0.00517851013243283</v>
+        <v>0.005287397233005817</v>
       </c>
       <c r="X6" t="n">
-        <v>0.00514797747989449</v>
+        <v>0.005251100138647935</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.005116277702083719</v>
+        <v>0.005219296661787304</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4106314182281494</v>
+        <v>0.3749988079071045</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>269.9294367628754</v>
+        <v>266.9597803666729</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01043749849304309</v>
+        <v>0.01023719290449155</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0086921710404277</v>
+        <v>0.00857832451016282</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008035357796839076</v>
+        <v>0.008130251148314662</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007449031758304497</v>
+        <v>0.007207252445886939</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006836725754679793</v>
+        <v>0.006923596013504867</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006370944362288833</v>
+        <v>0.0067772327188038</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006288402496059302</v>
+        <v>0.006502048975950481</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006242023284807142</v>
+        <v>0.006157090176892234</v>
       </c>
       <c r="N7" t="n">
-        <v>0.006189991367952569</v>
+        <v>0.005943183652129765</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00591057578137297</v>
+        <v>0.005783965117215661</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005861433198289078</v>
+        <v>0.005729620273471732</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.005798726414263244</v>
+        <v>0.005599045958942685</v>
       </c>
       <c r="R7" t="n">
-        <v>0.005469590710845809</v>
+        <v>0.005425316105652722</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005469590710845809</v>
+        <v>0.005425218957624694</v>
       </c>
       <c r="T7" t="n">
-        <v>0.005469590710845809</v>
+        <v>0.005329686864908693</v>
       </c>
       <c r="U7" t="n">
-        <v>0.005361068454691177</v>
+        <v>0.005326343804999726</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00532675788064708</v>
+        <v>0.005298272164332605</v>
       </c>
       <c r="W7" t="n">
-        <v>0.005310898503408168</v>
+        <v>0.005251192350215222</v>
       </c>
       <c r="X7" t="n">
-        <v>0.005274002668882079</v>
+        <v>0.005232868555127321</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.005261782393038506</v>
+        <v>0.005203894354126177</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5602085590362549</v>
+        <v>0.3593747615814209</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>271.3096726951335</v>
+        <v>259.8245911551476</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01034170476070627</v>
+        <v>0.01031900034229313</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008868430371110458</v>
+        <v>0.008498085470277904</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007703250174102624</v>
+        <v>0.007519637791178748</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007164341462959026</v>
+        <v>0.007017384069639477</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006920281227718134</v>
+        <v>0.006390258430665003</v>
       </c>
       <c r="K8" t="n">
-        <v>0.006694326232322742</v>
+        <v>0.006268325914412807</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006522841753452219</v>
+        <v>0.006030083442461903</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00630770596102086</v>
+        <v>0.005989265336944727</v>
       </c>
       <c r="N8" t="n">
-        <v>0.006149869482773775</v>
+        <v>0.005849155181809057</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005894647926899288</v>
+        <v>0.005637049498475932</v>
       </c>
       <c r="P8" t="n">
-        <v>0.005756545223764235</v>
+        <v>0.005423753720056552</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.005620281953401039</v>
+        <v>0.005423753720056552</v>
       </c>
       <c r="R8" t="n">
-        <v>0.005527042215086451</v>
+        <v>0.005236274272748475</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005478065906610464</v>
+        <v>0.005147935543924322</v>
       </c>
       <c r="T8" t="n">
-        <v>0.005427730142208827</v>
+        <v>0.005147935543924322</v>
       </c>
       <c r="U8" t="n">
-        <v>0.005365015291404171</v>
+        <v>0.005147935543924322</v>
       </c>
       <c r="V8" t="n">
-        <v>0.005357316753205713</v>
+        <v>0.005119721079399486</v>
       </c>
       <c r="W8" t="n">
-        <v>0.005353824514432136</v>
+        <v>0.005077945315859441</v>
       </c>
       <c r="X8" t="n">
-        <v>0.005306585825090623</v>
+        <v>0.005077945315859441</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.005288687576903185</v>
+        <v>0.005064806845129581</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4350070953369141</v>
+        <v>0.4649057388305664</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>273.7343468393647</v>
+        <v>267.8443427358488</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01057358986059083</v>
+        <v>0.01034234017830077</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008377357685589846</v>
+        <v>0.008850368464315896</v>
       </c>
       <c r="H9" t="n">
-        <v>0.008010049552425409</v>
+        <v>0.007794286264484257</v>
       </c>
       <c r="I9" t="n">
-        <v>0.007496056915938875</v>
+        <v>0.007396591152871948</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006955466191511358</v>
+        <v>0.006950027930222922</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006735424961265003</v>
+        <v>0.006670825049210926</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006485322996242267</v>
+        <v>0.00654345553773773</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006066752325959488</v>
+        <v>0.006418626887227455</v>
       </c>
       <c r="N9" t="n">
-        <v>0.005879744864412759</v>
+        <v>0.006287225344243048</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005818747764631864</v>
+        <v>0.005805028149615073</v>
       </c>
       <c r="P9" t="n">
-        <v>0.005803382038486115</v>
+        <v>0.005686742798919752</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.005607346367677639</v>
+        <v>0.005527506615362369</v>
       </c>
       <c r="R9" t="n">
-        <v>0.005565870274850526</v>
+        <v>0.005527506615362369</v>
       </c>
       <c r="S9" t="n">
-        <v>0.005475689748349197</v>
+        <v>0.005371803823856987</v>
       </c>
       <c r="T9" t="n">
-        <v>0.005475689748349197</v>
+        <v>0.005361534212143419</v>
       </c>
       <c r="U9" t="n">
-        <v>0.005457307114448324</v>
+        <v>0.005330029822072003</v>
       </c>
       <c r="V9" t="n">
-        <v>0.005457307114448324</v>
+        <v>0.005310330785566698</v>
       </c>
       <c r="W9" t="n">
-        <v>0.005393120871428718</v>
+        <v>0.005251835464597697</v>
       </c>
       <c r="X9" t="n">
-        <v>0.005360977593614453</v>
+        <v>0.005245909061849652</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.005335952180104573</v>
+        <v>0.005221137285299196</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3885157108306885</v>
+        <v>0.3984847068786621</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>270.8994303194431</v>
+        <v>274.185441865875</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01041759567743269</v>
+        <v>0.01048508615881068</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008468375052086157</v>
+        <v>0.008712168689796233</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007457426335731901</v>
+        <v>0.007907265634125417</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007297378138992588</v>
+        <v>0.007363245376596948</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006983031153822539</v>
+        <v>0.007213270313554104</v>
       </c>
       <c r="K10" t="n">
-        <v>0.006256140353636393</v>
+        <v>0.006874955267004289</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006256140353636393</v>
+        <v>0.006498918709401772</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006256140353636393</v>
+        <v>0.006122210936848193</v>
       </c>
       <c r="N10" t="n">
-        <v>0.006091943966024217</v>
+        <v>0.006099590286100001</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005900152131013461</v>
+        <v>0.005891849388986479</v>
       </c>
       <c r="P10" t="n">
-        <v>0.005759712435345482</v>
+        <v>0.005788733028199897</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.005731504508896913</v>
+        <v>0.005693417198700012</v>
       </c>
       <c r="R10" t="n">
-        <v>0.005608231165858126</v>
+        <v>0.005635361133135072</v>
       </c>
       <c r="S10" t="n">
-        <v>0.00555437159945897</v>
+        <v>0.005608439387591108</v>
       </c>
       <c r="T10" t="n">
-        <v>0.005477436207417488</v>
+        <v>0.005584684360110435</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00536046443822012</v>
+        <v>0.00550783370184881</v>
       </c>
       <c r="V10" t="n">
-        <v>0.00536046443822012</v>
+        <v>0.005473870583280489</v>
       </c>
       <c r="W10" t="n">
-        <v>0.005326441378683082</v>
+        <v>0.005427884821505531</v>
       </c>
       <c r="X10" t="n">
-        <v>0.005307786073524545</v>
+        <v>0.005393976394079621</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.005280690649501815</v>
+        <v>0.005344745455475144</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3906242847442627</v>
+        <v>0.3749897480010986</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>267.022911121916</v>
+        <v>271.5231501078761</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01030393092124372</v>
+        <v>0.01024566124439139</v>
       </c>
       <c r="G11" t="n">
-        <v>0.008596206203175723</v>
+        <v>0.008845960170942399</v>
       </c>
       <c r="H11" t="n">
-        <v>0.007731391001268977</v>
+        <v>0.00712072162235441</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007313735331571323</v>
+        <v>0.00712072162235441</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006884397736514576</v>
+        <v>0.006789924672593769</v>
       </c>
       <c r="K11" t="n">
-        <v>0.006494287443583636</v>
+        <v>0.006369899632067151</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006177063075425804</v>
+        <v>0.006361783083948128</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00607172897109024</v>
+        <v>0.006031188240395158</v>
       </c>
       <c r="N11" t="n">
-        <v>0.005916453529590977</v>
+        <v>0.005893909539794811</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005840942494822327</v>
+        <v>0.005625657954778288</v>
       </c>
       <c r="P11" t="n">
-        <v>0.005657241465353534</v>
+        <v>0.005625657954778288</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.005603874807288216</v>
+        <v>0.005556574985080888</v>
       </c>
       <c r="R11" t="n">
-        <v>0.005540571166057827</v>
+        <v>0.005506589163614847</v>
       </c>
       <c r="S11" t="n">
-        <v>0.005491164497397811</v>
+        <v>0.005499444570437847</v>
       </c>
       <c r="T11" t="n">
-        <v>0.005397277811982815</v>
+        <v>0.005388962723291877</v>
       </c>
       <c r="U11" t="n">
-        <v>0.005319972736424903</v>
+        <v>0.005377777034938407</v>
       </c>
       <c r="V11" t="n">
-        <v>0.005250774917819148</v>
+        <v>0.005359040908180871</v>
       </c>
       <c r="W11" t="n">
-        <v>0.005242678222047364</v>
+        <v>0.005329388010334644</v>
       </c>
       <c r="X11" t="n">
-        <v>0.005216007884603447</v>
+        <v>0.005312849150142111</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.005205124973136762</v>
+        <v>0.005292848929978089</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr50_08_simulated/details.xlsx
+++ b/result/gr50_08_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4626922607421875</v>
+        <v>0.8639936447143555</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>275.9337530369794</v>
+        <v>296.1195148364441</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01040134582875035</v>
+        <v>0.01065921349924351</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008428035884090563</v>
+        <v>0.009327086568022135</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007738008719057779</v>
+        <v>0.008519410935977854</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007059611484734264</v>
+        <v>0.008051945088925677</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006821210903091132</v>
+        <v>0.007303639323851956</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006821210903091132</v>
+        <v>0.007141400872617726</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006418758235678772</v>
+        <v>0.006779025560253142</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006226746093999222</v>
+        <v>0.006779025560253142</v>
       </c>
       <c r="N2" t="n">
-        <v>0.006213262495966666</v>
+        <v>0.006561313563694094</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006056658926514663</v>
+        <v>0.006397935445406792</v>
       </c>
       <c r="P2" t="n">
-        <v>0.005833951560301759</v>
+        <v>0.006266892958815288</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.005833951560301759</v>
+        <v>0.00618954644162144</v>
       </c>
       <c r="R2" t="n">
-        <v>0.005688151035449522</v>
+        <v>0.00603937521859977</v>
       </c>
       <c r="S2" t="n">
-        <v>0.005636335713868044</v>
+        <v>0.005976829282653798</v>
       </c>
       <c r="T2" t="n">
-        <v>0.005582386149234148</v>
+        <v>0.005947638266956749</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005541011573364975</v>
+        <v>0.005907942566718205</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005482114114696436</v>
+        <v>0.005859474980700902</v>
       </c>
       <c r="W2" t="n">
-        <v>0.005440425200144848</v>
+        <v>0.005824599767077381</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005397674048609014</v>
+        <v>0.005791194632634606</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.005378825595262755</v>
+        <v>0.005772310230729902</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4530985355377197</v>
+        <v>0.986997127532959</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>262.8626510866325</v>
+        <v>289.2158871890515</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01033874312311437</v>
+        <v>0.01093838845198985</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008500088864466711</v>
+        <v>0.009110775181622359</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007583552938507685</v>
+        <v>0.008089553849284475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007257768139559727</v>
+        <v>0.007563562145410916</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006875546474686032</v>
+        <v>0.007321821088730339</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006655270305472172</v>
+        <v>0.007172755983415963</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00638282176669594</v>
+        <v>0.006745163143400894</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005927490665201376</v>
+        <v>0.006561719699221056</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005797455176214224</v>
+        <v>0.00639307252496842</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005745602826761158</v>
+        <v>0.006154336109788412</v>
       </c>
       <c r="P3" t="n">
-        <v>0.005630781448283894</v>
+        <v>0.006102585724693127</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.005516013317684911</v>
+        <v>0.005972710708785497</v>
       </c>
       <c r="R3" t="n">
-        <v>0.005417151072578647</v>
+        <v>0.005880166645304227</v>
       </c>
       <c r="S3" t="n">
-        <v>0.005343764638332003</v>
+        <v>0.005839371578010052</v>
       </c>
       <c r="T3" t="n">
-        <v>0.005317696231784359</v>
+        <v>0.005770312520486029</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005168841471454797</v>
+        <v>0.005751366960597891</v>
       </c>
       <c r="V3" t="n">
-        <v>0.005168841471454797</v>
+        <v>0.0057095001965325</v>
       </c>
       <c r="W3" t="n">
-        <v>0.005153457642781748</v>
+        <v>0.005678758001815071</v>
       </c>
       <c r="X3" t="n">
-        <v>0.005134005563190174</v>
+        <v>0.005657860847128233</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.005124028286289131</v>
+        <v>0.005637736592379171</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3906357288360596</v>
+        <v>0.8109967708587646</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>264.6186864901156</v>
+        <v>281.3937139852096</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01047038990392477</v>
+        <v>0.0109174859171614</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008718343217483581</v>
+        <v>0.009000449033074084</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007736983885521965</v>
+        <v>0.0079721850354861</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007203006979048012</v>
+        <v>0.007524022928289915</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006982176386463974</v>
+        <v>0.00713000066991834</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006521126515472735</v>
+        <v>0.006729976223824906</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006267426779403299</v>
+        <v>0.006330224090856857</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006016747472192939</v>
+        <v>0.006114075027566264</v>
       </c>
       <c r="N4" t="n">
-        <v>0.005880151418354016</v>
+        <v>0.005967455159733072</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005628025794764456</v>
+        <v>0.005896934349733619</v>
       </c>
       <c r="P4" t="n">
-        <v>0.005552756952432648</v>
+        <v>0.005839350711776134</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.005509311953508329</v>
+        <v>0.005773278928779519</v>
       </c>
       <c r="R4" t="n">
-        <v>0.005475881152192883</v>
+        <v>0.005746901577213047</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00543707239136625</v>
+        <v>0.005672201782516224</v>
       </c>
       <c r="T4" t="n">
-        <v>0.005348516556342397</v>
+        <v>0.005606174398824691</v>
       </c>
       <c r="U4" t="n">
-        <v>0.005315961966643704</v>
+        <v>0.005570916852754136</v>
       </c>
       <c r="V4" t="n">
-        <v>0.005263303469299371</v>
+        <v>0.005524872040737942</v>
       </c>
       <c r="W4" t="n">
-        <v>0.005177593693843964</v>
+        <v>0.00550516647454677</v>
       </c>
       <c r="X4" t="n">
-        <v>0.005177593693843964</v>
+        <v>0.005488800672767955</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.005158258995908685</v>
+        <v>0.005485257582557691</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3593857288360596</v>
+        <v>0.8500010967254639</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>256.8925975645307</v>
+        <v>287.8701452900732</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01035150911078932</v>
+        <v>0.01082266316085568</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008673873058030284</v>
+        <v>0.009187986263855315</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008017025101872225</v>
+        <v>0.008278100275909318</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00718724823327683</v>
+        <v>0.007433804296935851</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006556711731160039</v>
+        <v>0.006936204093651316</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00647506170236483</v>
+        <v>0.006853270744947282</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006114808910002167</v>
+        <v>0.006484330964937192</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005897189574030352</v>
+        <v>0.006397406068918979</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005824898676250046</v>
+        <v>0.006249074046670152</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005592079379281949</v>
+        <v>0.006166039595275993</v>
       </c>
       <c r="P5" t="n">
-        <v>0.005455307039384372</v>
+        <v>0.006012928734474868</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.005323865871543272</v>
+        <v>0.005948819323934726</v>
       </c>
       <c r="R5" t="n">
-        <v>0.005225664481815406</v>
+        <v>0.005857873041175507</v>
       </c>
       <c r="S5" t="n">
-        <v>0.005225664481815406</v>
+        <v>0.005808114280872779</v>
       </c>
       <c r="T5" t="n">
-        <v>0.005183425730518822</v>
+        <v>0.005739185838940374</v>
       </c>
       <c r="U5" t="n">
-        <v>0.005106470168867748</v>
+        <v>0.005715930484355331</v>
       </c>
       <c r="V5" t="n">
-        <v>0.005091627630257076</v>
+        <v>0.005698095070917781</v>
       </c>
       <c r="W5" t="n">
-        <v>0.005055263008845876</v>
+        <v>0.005642685121888009</v>
       </c>
       <c r="X5" t="n">
-        <v>0.005025304779889503</v>
+        <v>0.005630724235496577</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.005007652973967458</v>
+        <v>0.005611503806824038</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3906159400939941</v>
+        <v>0.8560261726379395</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>267.7499187496887</v>
+        <v>287.9387669249809</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01031406849820599</v>
+        <v>0.01079618492857642</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00871924635319505</v>
+        <v>0.009222670275773202</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007653007787958506</v>
+        <v>0.008485776106627934</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007156190955423947</v>
+        <v>0.007701904731073876</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006734252341349758</v>
+        <v>0.007284695299467978</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006396797063456932</v>
+        <v>0.007040250758469538</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00625204549694566</v>
+        <v>0.006999540033925368</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006006521547083767</v>
+        <v>0.006649806100610757</v>
       </c>
       <c r="N6" t="n">
-        <v>0.005773282397745099</v>
+        <v>0.00639928383211524</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005672263232356863</v>
+        <v>0.00622351316853138</v>
       </c>
       <c r="P6" t="n">
-        <v>0.005598575024120759</v>
+        <v>0.006059245119800802</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.005545093658202197</v>
+        <v>0.005990242035827284</v>
       </c>
       <c r="R6" t="n">
-        <v>0.005520360311779811</v>
+        <v>0.005892514446745176</v>
       </c>
       <c r="S6" t="n">
-        <v>0.005456280298791846</v>
+        <v>0.005775424016101026</v>
       </c>
       <c r="T6" t="n">
-        <v>0.005327616626460229</v>
+        <v>0.005775424016101026</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005327616626460229</v>
+        <v>0.005669662954929365</v>
       </c>
       <c r="V6" t="n">
-        <v>0.005308654907050054</v>
+        <v>0.005669379922316247</v>
       </c>
       <c r="W6" t="n">
-        <v>0.005287397233005817</v>
+        <v>0.005659077621671153</v>
       </c>
       <c r="X6" t="n">
-        <v>0.005251100138647935</v>
+        <v>0.005612841460525942</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.005219296661787304</v>
+        <v>0.005612841460525942</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3749988079071045</v>
+        <v>0.7842490673065186</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>266.9597803666729</v>
+        <v>281.022436977104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01023719290449155</v>
+        <v>0.01073066322429305</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00857832451016282</v>
+        <v>0.009021469864119475</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008130251148314662</v>
+        <v>0.008242146319068928</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007207252445886939</v>
+        <v>0.007767383393101018</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006923596013504867</v>
+        <v>0.007115233313051412</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0067772327188038</v>
+        <v>0.006825990454005032</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006502048975950481</v>
+        <v>0.006543071547311605</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006157090176892234</v>
+        <v>0.006231704322282084</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005943183652129765</v>
+        <v>0.006107595443244023</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005783965117215661</v>
+        <v>0.006047382643343071</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005729620273471732</v>
+        <v>0.005961716176295798</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.005599045958942685</v>
+        <v>0.005812304131772955</v>
       </c>
       <c r="R7" t="n">
-        <v>0.005425316105652722</v>
+        <v>0.005812304131772955</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005425218957624694</v>
+        <v>0.005732510864528489</v>
       </c>
       <c r="T7" t="n">
-        <v>0.005329686864908693</v>
+        <v>0.00564571010558406</v>
       </c>
       <c r="U7" t="n">
-        <v>0.005326343804999726</v>
+        <v>0.005599221026200645</v>
       </c>
       <c r="V7" t="n">
-        <v>0.005298272164332605</v>
+        <v>0.005553288670629906</v>
       </c>
       <c r="W7" t="n">
-        <v>0.005251192350215222</v>
+        <v>0.005532114010930156</v>
       </c>
       <c r="X7" t="n">
-        <v>0.005232868555127321</v>
+        <v>0.005498924641649697</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.005203894354126177</v>
+        <v>0.005478020213978634</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3593747615814209</v>
+        <v>0.6970038414001465</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>259.8245911551476</v>
+        <v>287.2063047151532</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01031900034229313</v>
+        <v>0.01069053197663875</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008498085470277904</v>
+        <v>0.009258540707633107</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007519637791178748</v>
+        <v>0.00841835531749475</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007017384069639477</v>
+        <v>0.007803719938648874</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006390258430665003</v>
+        <v>0.007190188045008193</v>
       </c>
       <c r="K8" t="n">
-        <v>0.006268325914412807</v>
+        <v>0.007018750288422422</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006030083442461903</v>
+        <v>0.006825461038254706</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005989265336944727</v>
+        <v>0.006635392794623432</v>
       </c>
       <c r="N8" t="n">
-        <v>0.005849155181809057</v>
+        <v>0.006215421924813485</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005637049498475932</v>
+        <v>0.006215421924813485</v>
       </c>
       <c r="P8" t="n">
-        <v>0.005423753720056552</v>
+        <v>0.006112963457219991</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.005423753720056552</v>
+        <v>0.005988202346238889</v>
       </c>
       <c r="R8" t="n">
-        <v>0.005236274272748475</v>
+        <v>0.005903451555463262</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005147935543924322</v>
+        <v>0.005812518720200638</v>
       </c>
       <c r="T8" t="n">
-        <v>0.005147935543924322</v>
+        <v>0.005675801240050402</v>
       </c>
       <c r="U8" t="n">
-        <v>0.005147935543924322</v>
+        <v>0.005675801240050402</v>
       </c>
       <c r="V8" t="n">
-        <v>0.005119721079399486</v>
+        <v>0.005675801240050402</v>
       </c>
       <c r="W8" t="n">
-        <v>0.005077945315859441</v>
+        <v>0.005635402543683981</v>
       </c>
       <c r="X8" t="n">
-        <v>0.005077945315859441</v>
+        <v>0.005627217927530435</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.005064806845129581</v>
+        <v>0.005598563444739828</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4649057388305664</v>
+        <v>0.7299864292144775</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>267.8443427358488</v>
+        <v>300.1896245735297</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01034234017830077</v>
+        <v>0.01074539905723561</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008850368464315896</v>
+        <v>0.009039369785125803</v>
       </c>
       <c r="H9" t="n">
-        <v>0.007794286264484257</v>
+        <v>0.008300985575273402</v>
       </c>
       <c r="I9" t="n">
-        <v>0.007396591152871948</v>
+        <v>0.007710844899008651</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006950027930222922</v>
+        <v>0.007247188991277652</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006670825049210926</v>
+        <v>0.006855724593098206</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00654345553773773</v>
+        <v>0.006676931233639734</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006418626887227455</v>
+        <v>0.006476097353256385</v>
       </c>
       <c r="N9" t="n">
-        <v>0.006287225344243048</v>
+        <v>0.006329770271015865</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005805028149615073</v>
+        <v>0.006255902372528957</v>
       </c>
       <c r="P9" t="n">
-        <v>0.005686742798919752</v>
+        <v>0.006201293997590424</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.005527506615362369</v>
+        <v>0.006147373706760837</v>
       </c>
       <c r="R9" t="n">
-        <v>0.005527506615362369</v>
+        <v>0.006042388022378269</v>
       </c>
       <c r="S9" t="n">
-        <v>0.005371803823856987</v>
+        <v>0.005999455501715506</v>
       </c>
       <c r="T9" t="n">
-        <v>0.005361534212143419</v>
+        <v>0.005969556808319826</v>
       </c>
       <c r="U9" t="n">
-        <v>0.005330029822072003</v>
+        <v>0.00594910304184398</v>
       </c>
       <c r="V9" t="n">
-        <v>0.005310330785566698</v>
+        <v>0.005915342941916073</v>
       </c>
       <c r="W9" t="n">
-        <v>0.005251835464597697</v>
+        <v>0.005888226746343741</v>
       </c>
       <c r="X9" t="n">
-        <v>0.005245909061849652</v>
+        <v>0.005871895406501307</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.005221137285299196</v>
+        <v>0.005851649601823191</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3984847068786621</v>
+        <v>0.9390068054199219</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>274.185441865875</v>
+        <v>292.0559035863625</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01048508615881068</v>
+        <v>0.01052853774516058</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008712168689796233</v>
+        <v>0.009174170963945861</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007907265634125417</v>
+        <v>0.008376687239522661</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007363245376596948</v>
+        <v>0.007462415807519122</v>
       </c>
       <c r="J10" t="n">
-        <v>0.007213270313554104</v>
+        <v>0.007127028139438352</v>
       </c>
       <c r="K10" t="n">
-        <v>0.006874955267004289</v>
+        <v>0.006887780987552167</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006498918709401772</v>
+        <v>0.00680813666965815</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006122210936848193</v>
+        <v>0.006410018289955128</v>
       </c>
       <c r="N10" t="n">
-        <v>0.006099590286100001</v>
+        <v>0.00635326265732845</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005891849388986479</v>
+        <v>0.006243296431638505</v>
       </c>
       <c r="P10" t="n">
-        <v>0.005788733028199897</v>
+        <v>0.00614398900002081</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.005693417198700012</v>
+        <v>0.006010514260017062</v>
       </c>
       <c r="R10" t="n">
-        <v>0.005635361133135072</v>
+        <v>0.00589372902751667</v>
       </c>
       <c r="S10" t="n">
-        <v>0.005608439387591108</v>
+        <v>0.00589372902751667</v>
       </c>
       <c r="T10" t="n">
-        <v>0.005584684360110435</v>
+        <v>0.005835714732511688</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00550783370184881</v>
+        <v>0.005773394274065121</v>
       </c>
       <c r="V10" t="n">
-        <v>0.005473870583280489</v>
+        <v>0.005740561564248813</v>
       </c>
       <c r="W10" t="n">
-        <v>0.005427884821505531</v>
+        <v>0.005706293366762556</v>
       </c>
       <c r="X10" t="n">
-        <v>0.005393976394079621</v>
+        <v>0.005706293366762556</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.005344745455475144</v>
+        <v>0.005693097535796539</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3749897480010986</v>
+        <v>0.7250375747680664</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>271.5231501078761</v>
+        <v>289.8192262131215</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01024566124439139</v>
+        <v>0.01081722240702897</v>
       </c>
       <c r="G11" t="n">
-        <v>0.008845960170942399</v>
+        <v>0.009084748934296262</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00712072162235441</v>
+        <v>0.008245047107720962</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00712072162235441</v>
+        <v>0.007796060707096364</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006789924672593769</v>
+        <v>0.007490931808848297</v>
       </c>
       <c r="K11" t="n">
-        <v>0.006369899632067151</v>
+        <v>0.007268194483581432</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006361783083948128</v>
+        <v>0.006907612672054565</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006031188240395158</v>
+        <v>0.006612452277113794</v>
       </c>
       <c r="N11" t="n">
-        <v>0.005893909539794811</v>
+        <v>0.006496602793851128</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005625657954778288</v>
+        <v>0.00605310384628778</v>
       </c>
       <c r="P11" t="n">
-        <v>0.005625657954778288</v>
+        <v>0.00605310384628778</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.005556574985080888</v>
+        <v>0.005977578283075318</v>
       </c>
       <c r="R11" t="n">
-        <v>0.005506589163614847</v>
+        <v>0.005949941000725935</v>
       </c>
       <c r="S11" t="n">
-        <v>0.005499444570437847</v>
+        <v>0.005893052227192949</v>
       </c>
       <c r="T11" t="n">
-        <v>0.005388962723291877</v>
+        <v>0.005752749214297771</v>
       </c>
       <c r="U11" t="n">
-        <v>0.005377777034938407</v>
+        <v>0.005752749214297771</v>
       </c>
       <c r="V11" t="n">
-        <v>0.005359040908180871</v>
+        <v>0.005752749214297771</v>
       </c>
       <c r="W11" t="n">
-        <v>0.005329388010334644</v>
+        <v>0.005709073737954795</v>
       </c>
       <c r="X11" t="n">
-        <v>0.005312849150142111</v>
+        <v>0.005674341847459206</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.005292848929978089</v>
+        <v>0.005649497587000418</v>
       </c>
     </row>
   </sheetData>
